--- a/www/TestCalendrier.xlsx
+++ b/www/TestCalendrier.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leroy\Documents\COURS M1\Q2\LBIRA2130\Github de base optimaraichage\opti_maraich-main\www\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nico\Github\opti_maraich\www\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12DA5380-2A2C-42E3-8189-0EE58015D8A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76545F9B-2BD4-48D4-A17C-CF56E6563089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{99C2D05E-5E03-42E3-81EC-76C10C7EDBB4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{99C2D05E-5E03-42E3-81EC-76C10C7EDBB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
   <si>
     <t>S</t>
   </si>
@@ -46,9 +46,6 @@
     <t>Légumes</t>
   </si>
   <si>
-    <t>Tomate</t>
-  </si>
-  <si>
     <t>R</t>
   </si>
   <si>
@@ -86,6 +83,96 @@
   </si>
   <si>
     <t>NOVEMBRE</t>
+  </si>
+  <si>
+    <t>artichaut</t>
+  </si>
+  <si>
+    <t>asperge</t>
+  </si>
+  <si>
+    <t>aubergine</t>
+  </si>
+  <si>
+    <t>betterave rouge</t>
+  </si>
+  <si>
+    <t>brocoli</t>
+  </si>
+  <si>
+    <t>carotte</t>
+  </si>
+  <si>
+    <t>cassis</t>
+  </si>
+  <si>
+    <t>celeri rave</t>
+  </si>
+  <si>
+    <t>chou fleur</t>
+  </si>
+  <si>
+    <t>concombre</t>
+  </si>
+  <si>
+    <t>courgette</t>
+  </si>
+  <si>
+    <t>endive</t>
+  </si>
+  <si>
+    <t>epinard</t>
+  </si>
+  <si>
+    <t>fenouil doux</t>
+  </si>
+  <si>
+    <t>fraisier</t>
+  </si>
+  <si>
+    <t>framboise</t>
+  </si>
+  <si>
+    <t>groseiller</t>
+  </si>
+  <si>
+    <t>haricots nains</t>
+  </si>
+  <si>
+    <t>haricots rames</t>
+  </si>
+  <si>
+    <t>kiwi</t>
+  </si>
+  <si>
+    <t>laitue</t>
+  </si>
+  <si>
+    <t>mesclun</t>
+  </si>
+  <si>
+    <t>myrtille</t>
+  </si>
+  <si>
+    <t>oignon</t>
+  </si>
+  <si>
+    <t>panais</t>
+  </si>
+  <si>
+    <t>patate douce</t>
+  </si>
+  <si>
+    <t>poireau</t>
+  </si>
+  <si>
+    <t>pomme de terre</t>
+  </si>
+  <si>
+    <t>radis botte</t>
+  </si>
+  <si>
+    <t>tomate</t>
   </si>
 </sst>
 </file>
@@ -109,7 +196,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -117,12 +204,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,91 +541,239 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73ACC9BE-FFC6-4B4D-96DA-E09BDB722A36}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L1" t="s">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1</v>
+      </c>
+      <c r="F31" t="s">
+        <v>1</v>
+      </c>
+      <c r="G31" t="s">
+        <v>1</v>
+      </c>
+      <c r="H31" t="s">
+        <v>1</v>
+      </c>
+      <c r="J31" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K2" t="s">
-        <v>4</v>
-      </c>
-      <c r="L2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M2" t="s">
-        <v>4</v>
+      <c r="K31" t="s">
+        <v>3</v>
+      </c>
+      <c r="L31" t="s">
+        <v>3</v>
+      </c>
+      <c r="M31" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/www/TestCalendrier.xlsx
+++ b/www/TestCalendrier.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nico\Github\opti_maraich\www\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76545F9B-2BD4-48D4-A17C-CF56E6563089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B8B7E64-BB8F-4B49-A255-E582D84B9456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{99C2D05E-5E03-42E3-81EC-76C10C7EDBB4}"/>
   </bookViews>
@@ -35,10 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
-  <si>
-    <t>S</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="58">
   <si>
     <t>P</t>
   </si>
@@ -173,6 +170,45 @@
   </si>
   <si>
     <t>tomate</t>
+  </si>
+  <si>
+    <t>SA</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>SE/P</t>
+  </si>
+  <si>
+    <t>SA/SE</t>
+  </si>
+  <si>
+    <t>SE/R</t>
+  </si>
+  <si>
+    <t>P/R</t>
+  </si>
+  <si>
+    <t>SE/P/R</t>
+  </si>
+  <si>
+    <t>Semi sous abri</t>
+  </si>
+  <si>
+    <t>Semis extérieur</t>
+  </si>
+  <si>
+    <t>Germination</t>
+  </si>
+  <si>
+    <t>Plantation</t>
+  </si>
+  <si>
+    <t>Récolte</t>
   </si>
 </sst>
 </file>
@@ -541,10 +577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73ACC9BE-FFC6-4B4D-96DA-E09BDB722A36}">
-  <dimension ref="A1:M31"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -552,228 +588,735 @@
     <col min="1" max="1" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S3" t="s">
+        <v>45</v>
+      </c>
+      <c r="T3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="C4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" t="s">
+        <v>2</v>
+      </c>
+      <c r="S4" t="s">
+        <v>47</v>
+      </c>
+      <c r="T4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="D5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K5" t="s">
+        <v>2</v>
+      </c>
+      <c r="S5" t="s">
+        <v>46</v>
+      </c>
+      <c r="T5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>2</v>
+      </c>
+      <c r="K6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L6" t="s">
+        <v>2</v>
+      </c>
+      <c r="M6" t="s">
+        <v>2</v>
+      </c>
+      <c r="S6" t="s">
+        <v>0</v>
+      </c>
+      <c r="T6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="C7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J7" t="s">
+        <v>2</v>
+      </c>
+      <c r="K7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L7" t="s">
+        <v>2</v>
+      </c>
+      <c r="S7" t="s">
+        <v>2</v>
+      </c>
+      <c r="T7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
+        <v>2</v>
+      </c>
+      <c r="K9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" t="s">
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>51</v>
+      </c>
+      <c r="J10" t="s">
+        <v>2</v>
+      </c>
+      <c r="K10" t="s">
+        <v>2</v>
+      </c>
+      <c r="L10" t="s">
+        <v>2</v>
+      </c>
+      <c r="M10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="E11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I11" t="s">
+        <v>2</v>
+      </c>
+      <c r="J11" t="s">
+        <v>2</v>
+      </c>
+      <c r="K11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="E12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" t="s">
+        <v>51</v>
+      </c>
+      <c r="I12" t="s">
+        <v>2</v>
+      </c>
+      <c r="J12" t="s">
+        <v>2</v>
+      </c>
+      <c r="K12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="F13" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="K13" t="s">
+        <v>2</v>
+      </c>
+      <c r="L13" t="s">
+        <v>2</v>
+      </c>
+      <c r="M13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="D14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>47</v>
+      </c>
+      <c r="J14" t="s">
+        <v>47</v>
+      </c>
+      <c r="K14" t="s">
+        <v>2</v>
+      </c>
+      <c r="L14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="E15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15" t="s">
+        <v>48</v>
+      </c>
+      <c r="I15" t="s">
+        <v>51</v>
+      </c>
+      <c r="J15" t="s">
+        <v>2</v>
+      </c>
+      <c r="K15" t="s">
+        <v>2</v>
+      </c>
+      <c r="L15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="C22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" t="s">
+        <v>52</v>
+      </c>
+      <c r="G22" t="s">
+        <v>52</v>
+      </c>
+      <c r="H22" t="s">
+        <v>52</v>
+      </c>
+      <c r="I22" t="s">
+        <v>52</v>
+      </c>
+      <c r="J22" t="s">
+        <v>52</v>
+      </c>
+      <c r="K22" t="s">
+        <v>51</v>
+      </c>
+      <c r="L22" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="D25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="H25" t="s">
+        <v>2</v>
+      </c>
+      <c r="I25" t="s">
+        <v>2</v>
+      </c>
+      <c r="J25" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
+      </c>
+      <c r="B26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" t="s">
+        <v>47</v>
+      </c>
+      <c r="F26" t="s">
+        <v>47</v>
+      </c>
+      <c r="G26" t="s">
+        <v>47</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="K26" t="s">
+        <v>2</v>
+      </c>
+      <c r="L26" t="s">
+        <v>2</v>
+      </c>
+      <c r="M26" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="B27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" t="s">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>0</v>
+      </c>
+      <c r="J27" t="s">
+        <v>2</v>
+      </c>
+      <c r="K27" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
+      </c>
+      <c r="B28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" t="s">
+        <v>47</v>
+      </c>
+      <c r="F28" t="s">
+        <v>47</v>
+      </c>
+      <c r="G28" t="s">
+        <v>0</v>
+      </c>
+      <c r="H28" t="s">
+        <v>0</v>
+      </c>
+      <c r="I28" t="s">
+        <v>0</v>
+      </c>
+      <c r="J28" t="s">
+        <v>2</v>
+      </c>
+      <c r="K28" t="s">
+        <v>2</v>
+      </c>
+      <c r="L28" t="s">
+        <v>2</v>
+      </c>
+      <c r="M28" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="C29" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" t="s">
+        <v>0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>0</v>
+      </c>
+      <c r="G29" t="s">
+        <v>0</v>
+      </c>
+      <c r="H29" t="s">
+        <v>2</v>
+      </c>
+      <c r="I29" t="s">
+        <v>2</v>
+      </c>
+      <c r="J29" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="D30" t="s">
+        <v>47</v>
+      </c>
+      <c r="E30" t="s">
+        <v>50</v>
+      </c>
+      <c r="F30" t="s">
+        <v>50</v>
+      </c>
+      <c r="G30" t="s">
+        <v>50</v>
+      </c>
+      <c r="H30" t="s">
+        <v>50</v>
+      </c>
+      <c r="I30" t="s">
+        <v>50</v>
+      </c>
+      <c r="J30" t="s">
+        <v>50</v>
+      </c>
+      <c r="K30" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B31" t="s">
-        <v>0</v>
-      </c>
-      <c r="C31" t="s">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="D31" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="E31" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="I31" t="s">
+        <v>2</v>
       </c>
       <c r="J31" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K31" t="s">
-        <v>3</v>
-      </c>
-      <c r="L31" t="s">
-        <v>3</v>
-      </c>
-      <c r="M31" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/www/TestCalendrier.xlsx
+++ b/www/TestCalendrier.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nico\Github\opti_maraich\www\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B8B7E64-BB8F-4B49-A255-E582D84B9456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5921DB43-0AA5-4C76-AF88-6C7B430F79A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{99C2D05E-5E03-42E3-81EC-76C10C7EDBB4}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="59">
   <si>
     <t>P</t>
   </si>
@@ -209,6 +209,9 @@
   </si>
   <si>
     <t>Récolte</t>
+  </si>
+  <si>
+    <t>R/P</t>
   </si>
 </sst>
 </file>
@@ -580,7 +583,7 @@
   <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T14" sqref="T14"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -837,6 +840,30 @@
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" t="s">
+        <v>0</v>
+      </c>
+      <c r="L8" t="s">
+        <v>0</v>
+      </c>
+      <c r="M8" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -1042,15 +1069,90 @@
       <c r="A16" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="D16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
+        <v>2</v>
+      </c>
+      <c r="H16" t="s">
+        <v>2</v>
+      </c>
+      <c r="I16" t="s">
+        <v>2</v>
+      </c>
+      <c r="J16" t="s">
+        <v>58</v>
+      </c>
+      <c r="K16" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" t="s">
+        <v>2</v>
+      </c>
+      <c r="H17" t="s">
+        <v>2</v>
+      </c>
+      <c r="I17" t="s">
+        <v>2</v>
+      </c>
+      <c r="J17" t="s">
+        <v>2</v>
+      </c>
+      <c r="K17" t="s">
+        <v>0</v>
+      </c>
+      <c r="L17" t="s">
+        <v>0</v>
+      </c>
+      <c r="M17" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>31</v>
+      </c>
+      <c r="B18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" t="s">
+        <v>2</v>
+      </c>
+      <c r="H18" t="s">
+        <v>2</v>
+      </c>
+      <c r="K18" t="s">
+        <v>0</v>
+      </c>
+      <c r="L18" t="s">
+        <v>0</v>
+      </c>
+      <c r="M18" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
